--- a/exam/exam-marks.xlsx
+++ b/exam/exam-marks.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exam-2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -63,13 +64,39 @@
   </si>
   <si>
     <t>Rohamot Ullah</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sarif</t>
+  </si>
+  <si>
+    <t>Rony</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Arbin Sheikh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +104,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,17 +180,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -116,6 +265,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D15"/>
+  <sortState ref="A2:D15">
+    <sortCondition descending="1" ref="B2:B15"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Marks" dataDxfId="2"/>
+    <tableColumn id="4" name="Status" dataDxfId="0">
+      <calculatedColumnFormula>IF(C2&gt;=56,"Pass","Fail")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,4 +738,266 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1246209</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f t="shared" ref="D2:D15" si="0">IF(C2&gt;=56,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1247404</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1247197</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1247484</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1247166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1246997</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>68</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1247331</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1246188</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1246991</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1246913</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1246643</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1246494</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <f>COUNT(A2:A15)</f>
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6">
+        <f>MAX(C2:C15)</f>
+        <v>76</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/exam/exam-marks.xlsx
+++ b/exam/exam-marks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Arbin Sheikh</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +128,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -193,40 +227,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -254,6 +281,25 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -268,17 +314,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F15"/>
   <sortState ref="A2:D15">
     <sortCondition descending="1" ref="B2:B15"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" name="Marks" dataDxfId="2"/>
-    <tableColumn id="4" name="Status" dataDxfId="0">
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" name="Marks" dataDxfId="3"/>
+    <tableColumn id="4" name="Status" dataDxfId="2">
       <calculatedColumnFormula>IF(C2&gt;=56,"Pass","Fail")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Reward" dataDxfId="1">
+      <calculatedColumnFormula>IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"Good","Bad")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Grade" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"A",IF(C2&gt;=80*80%, "A+","Fail"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -742,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +808,7 @@
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -769,9 +821,14 @@
       <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1246209</v>
       </c>
@@ -785,8 +842,19 @@
         <f t="shared" ref="D2:D15" si="0">IF(C2&gt;=56,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E15" si="1">IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="F2" s="14" t="str">
+        <f>IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"A",IF(C2&gt;=80*80%, "A+","Fail"))</f>
+        <v>A+</v>
+      </c>
+      <c r="K2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1247404</v>
       </c>
@@ -800,8 +868,19 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F2:F15" si="2">IF(AND(C3&gt;=80*70%,C3&lt;80*80%),"A",IF(C3&gt;=80*80%, "A+","Fail"))</f>
+        <v>A+</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1247197</v>
       </c>
@@ -815,8 +894,19 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="K4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1247484</v>
       </c>
@@ -830,8 +920,19 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="K5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1247166</v>
       </c>
@@ -845,10 +946,22 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="12">
+        <f>MAX(K2:K5)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1246997</v>
       </c>
@@ -862,8 +975,20 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="K7" s="13">
+        <f>AVERAGE(K2:K6)</f>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1247331</v>
       </c>
@@ -877,21 +1002,41 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="K8" s="11">
+        <f>MIN(K2:K5)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Pass</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1246188</v>
       </c>
@@ -905,8 +1050,16 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1246991</v>
       </c>
@@ -920,8 +1073,16 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1246913</v>
       </c>
@@ -935,8 +1096,16 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -948,8 +1117,16 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1246643</v>
       </c>
@@ -963,8 +1140,16 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1246494</v>
       </c>
@@ -978,8 +1163,16 @@
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <f>COUNT(A2:A15)</f>
         <v>12</v>
